--- a/test_cases/TC-5/PE-54-Resultado.xlsx
+++ b/test_cases/TC-5/PE-54-Resultado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\UADE\Año 2\Segundo Cutrimestre\Testing de Aplicaciones\TPO\test_cases\TC-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4058ADB7-68B7-49FF-ADED-16588B0FC32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0721424-6260-4A31-80D8-05DF89F501BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>No hay bloqueo de usuario de ningun tipo</t>
-  </si>
-  <si>
-    <t>TC-5</t>
   </si>
   <si>
     <t>Test Data</t>
@@ -152,6 +149,39 @@
   </si>
   <si>
     <t>User password = 1233</t>
+  </si>
+  <si>
+    <t>TC-5-1</t>
+  </si>
+  <si>
+    <t>TC-5-2</t>
+  </si>
+  <si>
+    <t>User e-mail = pepe#gmail</t>
+  </si>
+  <si>
+    <t>PE-54
+Inicio de Sesion error e-mail</t>
+  </si>
+  <si>
+    <t>TC-5-3</t>
+  </si>
+  <si>
+    <t>PE-54
+Inicio de Sesion error y reingreso</t>
+  </si>
+  <si>
+    <t>password incorrecta = aaaa</t>
+  </si>
+  <si>
+    <t>password = 1234</t>
+  </si>
+  <si>
+    <t>TC-5-4</t>
+  </si>
+  <si>
+    <t>PE-54
+Inicio de Sesion bloqueo</t>
   </si>
 </sst>
 </file>
@@ -358,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -392,68 +422,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,14 +514,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>324969</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>522192</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>110532</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -528,14 +564,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>246529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -550,8 +586,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7317441" y="3686735"/>
-          <a:ext cx="1456765" cy="683559"/>
+          <a:off x="7295029" y="3697941"/>
+          <a:ext cx="1456766" cy="661147"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -582,9 +618,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-ES" sz="1600"/>
             <a:t>No existe esta verificacion</a:t>
@@ -597,15 +634,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>324970</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>336177</xdr:rowOff>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -620,8 +657,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13122088" y="4191000"/>
-          <a:ext cx="1456765" cy="683559"/>
+          <a:off x="13155706" y="4078941"/>
+          <a:ext cx="1456766" cy="683559"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -652,9 +689,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-ES" sz="1600"/>
             <a:t>No existe este blockeo</a:t>
@@ -930,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G34"/>
+  <dimension ref="B1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,28 +985,28 @@
     <col min="7" max="7" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -976,454 +1014,648 @@
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="27" t="s">
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="C4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>40</v>
-      </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="28"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="E4" s="23"/>
+      <c r="G4" s="18"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="13" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="2:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="C15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="D15" s="2"/>
+      <c r="E15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="23"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="C18" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="13" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
         <v>2</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="23"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D32" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="15" t="s">
+      <c r="E32" s="22"/>
+      <c r="F32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
         <v>3</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D33" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15" t="s">
+      <c r="E33" s="26"/>
+      <c r="F33" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="2:7" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="2:7" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
         <v>4</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
-        <v>6</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
-        <v>4</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="7">
-        <v>5</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="25"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="23"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="33"/>
+    </row>
+    <row r="45" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+    </row>
+    <row r="47" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="7">
+        <v>4</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="32"/>
+    </row>
+    <row r="51" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="7">
+        <v>5</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="17" t="s">
+      <c r="E51" s="25"/>
+      <c r="F51" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="18"/>
+      <c r="G51" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="D9:E9"/>
+  <mergeCells count="52">
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
